--- a/biology/Zoologie/Allancastria_deyrollei/Allancastria_deyrollei.xlsx
+++ b/biology/Zoologie/Allancastria_deyrollei/Allancastria_deyrollei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allancastria deyrollei est une espèce de lépidoptères de la famille des Papilionidae et de la sous-famille des Parnassiinae.
 </t>
@@ -511,13 +523,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Allancastria deyrollei a été décrite par l'entomologiste français Charles Oberthür en 1869[1].
-Comme les autres espèces du genre Allancastria, elle est placée par certains auteurs dans le genre Zerynthia (et s'appelle alors Zerynthia deyrollei)[1].
-Sous-espèces
-Allancastria deyrollei deyrollei
-Allancastria deyrollei eisneri Bernardi, 1972[2]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Allancastria deyrollei a été décrite par l'entomologiste français Charles Oberthür en 1869.
+Comme les autres espèces du genre Allancastria, elle est placée par certains auteurs dans le genre Zerynthia (et s'appelle alors Zerynthia deyrollei).
+</t>
         </is>
       </c>
     </row>
@@ -542,13 +554,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'imago d’Allancastria deyrollei est un papillon de taille moyenne, au fond blanc à blanc ocré orné de marques noires et d'une ligne de festons submaginaux et de quelques points rouges aux postérieures.
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Allancastria deyrollei deyrollei
+Allancastria deyrollei eisneri Bernardi, 1972</t>
         </is>
       </c>
     </row>
@@ -573,15 +591,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phénologie
-Allancastria deyrollei vole en une seule génération annuelle, de mars à mai[2].
-Plantes-hôtes
-Ses plantes-hôtes sont des aristoloches : Aristolochia mauronum et Aristolochia paecilantha[1].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imago d’Allancastria deyrollei est un papillon de taille moyenne, au fond blanc à blanc ocré orné de marques noires et d'une ligne de festons submaginaux et de quelques points rouges aux postérieures.
 </t>
         </is>
       </c>
@@ -607,10 +624,86 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Phénologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allancastria deyrollei vole en une seule génération annuelle, de mars à mai.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Allancastria_deyrollei</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allancastria_deyrollei</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes-hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes-hôtes sont des aristoloches : Aristolochia mauronum et Aristolochia paecilantha.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Allancastria_deyrollei</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allancastria_deyrollei</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est présente en Asie Mineure, au Liban et en Syrie.
 </t>
